--- a/resultsList.xlsx
+++ b/resultsList.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="500" sheetId="1" r:id="rId1"/>
+    <sheet name="1000" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Separate</t>
   </si>
@@ -45,13 +47,43 @@
   </si>
   <si>
     <t>Mean Buffer Index</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Average density</t>
+  </si>
+  <si>
+    <t>Separate Data Pools</t>
+  </si>
+  <si>
+    <t>United Data Pools</t>
+  </si>
+  <si>
+    <t>Average Density</t>
+  </si>
+  <si>
+    <t># Vehicles</t>
+  </si>
+  <si>
+    <t>Average Travel Time (minutes)</t>
+  </si>
+  <si>
+    <t>Average Travel Speed (mph)</t>
+  </si>
+  <si>
+    <t>Average Road Density (cars/mile)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +91,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -76,15 +122,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J5"/>
+  <dimension ref="A3:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,31 +709,33 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -414,25 +748,34 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>-0.05</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
         <v>8.3369999999999997</v>
@@ -443,24 +786,309 @@
       <c r="E5">
         <v>3.4470000000000001</v>
       </c>
-      <c r="G5">
-        <v>-0.05</v>
+      <c r="F5">
+        <v>4.95</v>
       </c>
       <c r="H5">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="I5">
         <v>8.4890000000000008</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.8029999999999999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.343</v>
+      </c>
+      <c r="L5">
+        <v>4.8879999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="C5">
+        <v>8.1560000000000006</v>
+      </c>
+      <c r="D5">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="E5">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="F5">
+        <v>8.1219999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="I5">
+        <v>8.2639999999999993</v>
+      </c>
+      <c r="J5">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="K5">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="L5">
+        <v>7.9550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>500</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <f>'500'!D5</f>
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="E7" s="15">
+        <f>'500'!J5</f>
+        <v>6.8029999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18">
+        <f>'500'!C5</f>
+        <v>8.3369999999999997</v>
+      </c>
+      <c r="E8" s="19">
+        <f>'500'!I5</f>
+        <v>8.4890000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22">
+        <f>'500'!F5</f>
+        <v>4.95</v>
+      </c>
+      <c r="E9" s="23">
+        <f>'500'!L5</f>
+        <v>4.8879999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14">
+        <f>'1000'!D5</f>
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="E11" s="15">
+        <f>'1000'!J5</f>
+        <v>6.8879999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18">
+        <f>'1000'!C5</f>
+        <v>8.1560000000000006</v>
+      </c>
+      <c r="E12" s="19">
+        <f>'1000'!I5</f>
+        <v>8.2639999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22">
+        <f>'1000'!F5</f>
+        <v>8.1219999999999999</v>
+      </c>
+      <c r="E13" s="23">
+        <f>'1000'!L5</f>
+        <v>7.9550000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B3:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>